--- a/Processing_data.xlsx
+++ b/Processing_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Charlie/Documents/CSM/Draft_papers/Cell_processing/Final_Data_Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D922DC-43BE-DB4D-A160-DDBCCD1B4ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419C2D6C-E286-074A-AE54-F8B5FEA9E21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="520" windowWidth="25600" windowHeight="14280" xr2:uid="{0187BE0C-0B37-2F46-AAE6-E1140A4FFDAA}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="25600" windowHeight="14280" activeTab="2" xr2:uid="{0187BE0C-0B37-2F46-AAE6-E1140A4FFDAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Shrinkage" sheetId="4" r:id="rId1"/>
@@ -586,78 +586,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="61">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1909,6 +1837,78 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1976,78 +1976,78 @@
     <tableColumn id="5" xr3:uid="{F3E6A582-D7F0-F54C-94F9-A3A4AF274F79}" name="Absolute humidity (g/m^3)" dataDxfId="54"/>
     <tableColumn id="6" xr3:uid="{87BC0C0F-D113-3F4D-BFA8-CBE104498D58}" name="Sintering neighbor"/>
     <tableColumn id="7" xr3:uid="{17B5B494-3E4C-1740-806C-7256441237E9}" name="Negatrode mass in furnace (g)" dataDxfId="53"/>
-    <tableColumn id="8" xr3:uid="{38471C1E-10E2-DD48-91D5-76C34F0B7EAB}" name="BCZYYb particle size (μm)" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{284C2927-94D7-6C45-822E-4C30E56953D1}" name="NiO particle size (μm)" dataDxfId="52"/>
-    <tableColumn id="10" xr3:uid="{42FC482F-C732-CC4B-8CCE-410F313CFCFE}" name="Negatrode BCZYYb (wt%)" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{B9D371DB-F7A3-D04A-9402-2AF4EF194E77}" name="Negatrode NiO (wt%)" dataDxfId="51"/>
-    <tableColumn id="12" xr3:uid="{33D9CAAA-0F2A-7D41-AA61-A25F258B0CD0}" name="Negatrode Starch (wt%)" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{773BBF05-23AD-F346-AD97-4CD54B966C10}" name="Furnace" dataDxfId="0"/>
-    <tableColumn id="14" xr3:uid="{C38CE621-406A-6940-834D-095792E27707}" name="Binder (%)" dataDxfId="50"/>
-    <tableColumn id="15" xr3:uid="{DA54EA04-3094-BF4E-810E-D43CD90FEFE7}" name="Pellet weight (g)" dataDxfId="49"/>
+    <tableColumn id="8" xr3:uid="{38471C1E-10E2-DD48-91D5-76C34F0B7EAB}" name="BCZYYb particle size (μm)" dataDxfId="52"/>
+    <tableColumn id="9" xr3:uid="{284C2927-94D7-6C45-822E-4C30E56953D1}" name="NiO particle size (μm)" dataDxfId="51"/>
+    <tableColumn id="10" xr3:uid="{42FC482F-C732-CC4B-8CCE-410F313CFCFE}" name="Negatrode BCZYYb (wt%)" dataDxfId="50"/>
+    <tableColumn id="11" xr3:uid="{B9D371DB-F7A3-D04A-9402-2AF4EF194E77}" name="Negatrode NiO (wt%)" dataDxfId="49"/>
+    <tableColumn id="12" xr3:uid="{33D9CAAA-0F2A-7D41-AA61-A25F258B0CD0}" name="Negatrode Starch (wt%)" dataDxfId="48"/>
+    <tableColumn id="13" xr3:uid="{773BBF05-23AD-F346-AD97-4CD54B966C10}" name="Furnace" dataDxfId="47"/>
+    <tableColumn id="14" xr3:uid="{C38CE621-406A-6940-834D-095792E27707}" name="Binder (%)" dataDxfId="46"/>
+    <tableColumn id="15" xr3:uid="{DA54EA04-3094-BF4E-810E-D43CD90FEFE7}" name="Pellet weight (g)" dataDxfId="45"/>
     <tableColumn id="16" xr3:uid="{C19347EA-A96D-9449-A7F1-6E7634471CA8}" name="Setter"/>
-    <tableColumn id="17" xr3:uid="{E588C146-6DA0-B947-A208-D7DB44478B3B}" name="Pellet number" dataDxfId="48"/>
-    <tableColumn id="18" xr3:uid="{C5EA07F2-B9D2-8F41-9A67-B955023717B2}" name="Days (press to spray)" dataDxfId="47"/>
-    <tableColumn id="19" xr3:uid="{D1813F5B-0317-C041-93EF-3C7E16F79747}" name="Days (press to sinter)" dataDxfId="46"/>
-    <tableColumn id="20" xr3:uid="{1D1EA4D9-F09E-4E45-B34E-BCD9C7570DEB}" name="Days (spray to sinter)" dataDxfId="45"/>
+    <tableColumn id="17" xr3:uid="{E588C146-6DA0-B947-A208-D7DB44478B3B}" name="Pellet number" dataDxfId="44"/>
+    <tableColumn id="18" xr3:uid="{C5EA07F2-B9D2-8F41-9A67-B955023717B2}" name="Days (press to spray)" dataDxfId="43"/>
+    <tableColumn id="19" xr3:uid="{D1813F5B-0317-C041-93EF-3C7E16F79747}" name="Days (press to sinter)" dataDxfId="42"/>
+    <tableColumn id="20" xr3:uid="{1D1EA4D9-F09E-4E45-B34E-BCD9C7570DEB}" name="Days (spray to sinter)" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CE4A5C54-1E9F-AA4E-85FC-D8C48236EC10}" name="Table3" displayName="Table3" ref="A1:S83" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CE4A5C54-1E9F-AA4E-85FC-D8C48236EC10}" name="Table3" displayName="Table3" ref="A1:S83" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A1:S83" xr:uid="{CE4A5C54-1E9F-AA4E-85FC-D8C48236EC10}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{C9C4A422-05D8-A848-BF72-75C66B1ABE09}" name="NFL" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{5D53DCF4-3125-3543-A292-D6BCE3846236}" name="PFL" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{D0A30982-400D-5D47-9F7E-4AB1A6C73B2D}" name="Electrolyte particle D50 (μm)" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{0636E41D-5A10-5D4A-8D8A-55AAA33E6814}" name="Ce on B-site (%)" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{FE22EFAA-2E5A-6348-B0F2-A7D0EB41128B}" name="Electrolyte application" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{71936330-3506-A741-9341-152F9416F1BA}" name="Electrolyte spray layers" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{328E2A25-A25B-D84A-939D-86373567280B}" name="Electrolyte grain size (μm)" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{D95D0661-4BA1-814D-B018-E1A2335ADB9A}" name="Sintering temperature (°C)" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{AB855525-F63E-1949-A86D-20C24C9129A3}" name="Sintering time (hrs)" dataDxfId="34"/>
-    <tableColumn id="10" xr3:uid="{05CEA482-796E-B24C-A9B4-5970654B3167}" name="Two-step sinter" dataDxfId="33"/>
-    <tableColumn id="11" xr3:uid="{66879143-2C1B-1341-8C2B-5E47FBC07231}" name="Furnace" dataDxfId="32"/>
-    <tableColumn id="12" xr3:uid="{981993D6-32CF-BE4F-9AD2-4563987EB37A}" name="Absolute humidity (g/m^3)" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{C9C4A422-05D8-A848-BF72-75C66B1ABE09}" name="NFL" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{5D53DCF4-3125-3543-A292-D6BCE3846236}" name="PFL" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{D0A30982-400D-5D47-9F7E-4AB1A6C73B2D}" name="Electrolyte particle D50 (μm)" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{0636E41D-5A10-5D4A-8D8A-55AAA33E6814}" name="Ce on B-site (%)" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{FE22EFAA-2E5A-6348-B0F2-A7D0EB41128B}" name="Electrolyte application" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{71936330-3506-A741-9341-152F9416F1BA}" name="Electrolyte spray layers" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{328E2A25-A25B-D84A-939D-86373567280B}" name="Electrolyte grain size (μm)" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{D95D0661-4BA1-814D-B018-E1A2335ADB9A}" name="Sintering temperature (°C)" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{AB855525-F63E-1949-A86D-20C24C9129A3}" name="Sintering time (hrs)" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{05CEA482-796E-B24C-A9B4-5970654B3167}" name="Two-step sinter" dataDxfId="29"/>
+    <tableColumn id="11" xr3:uid="{66879143-2C1B-1341-8C2B-5E47FBC07231}" name="Furnace" dataDxfId="28"/>
+    <tableColumn id="12" xr3:uid="{981993D6-32CF-BE4F-9AD2-4563987EB37A}" name="Absolute humidity (g/m^3)" dataDxfId="27"/>
     <tableColumn id="13" xr3:uid="{4E5CD4BA-ECCB-AD4B-A310-8596E0C07E14}" name="Sintering neighbor"/>
-    <tableColumn id="14" xr3:uid="{7F3DBC08-FAA3-C740-9EF7-2C375552ABF0}" name="Negatrode mass in furnace (g)" dataDxfId="30"/>
-    <tableColumn id="15" xr3:uid="{B18BF581-152D-434E-A334-2B5BA66F9CB5}" name="NiO in electrolyte" dataDxfId="29"/>
+    <tableColumn id="14" xr3:uid="{7F3DBC08-FAA3-C740-9EF7-2C375552ABF0}" name="Negatrode mass in furnace (g)" dataDxfId="26"/>
+    <tableColumn id="15" xr3:uid="{B18BF581-152D-434E-A334-2B5BA66F9CB5}" name="NiO in electrolyte" dataDxfId="25"/>
     <tableColumn id="16" xr3:uid="{AB0D8316-23A9-7348-A7E1-F8F202516A86}" name="Setter"/>
-    <tableColumn id="17" xr3:uid="{35A0B131-56B4-E148-9F35-63222C10B30F}" name="Pellet number" dataDxfId="28"/>
-    <tableColumn id="18" xr3:uid="{5B456ECC-A930-D94E-A4BF-E67A5CAA32F7}" name="Normalized thickness" dataDxfId="27"/>
-    <tableColumn id="19" xr3:uid="{275D4808-CA62-1A4F-A72C-7814F4A6B91A}" name="Electrolyte spray batch" dataDxfId="26"/>
+    <tableColumn id="17" xr3:uid="{35A0B131-56B4-E148-9F35-63222C10B30F}" name="Pellet number" dataDxfId="24"/>
+    <tableColumn id="18" xr3:uid="{5B456ECC-A930-D94E-A4BF-E67A5CAA32F7}" name="Normalized thickness" dataDxfId="23"/>
+    <tableColumn id="19" xr3:uid="{275D4808-CA62-1A4F-A72C-7814F4A6B91A}" name="Electrolyte spray batch" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{810A8F35-846C-9949-B5A1-BAAD5058DB0B}" name="Table1" displayName="Table1" ref="A1:V83" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{810A8F35-846C-9949-B5A1-BAAD5058DB0B}" name="Table1" displayName="Table1" ref="A1:V83" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:V83" xr:uid="{810A8F35-846C-9949-B5A1-BAAD5058DB0B}"/>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{37EA5415-1971-224A-8FCC-DBE9E7C4BB00}" name="NFL" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{7906FA84-0826-CE47-9E30-8403FEBED9D0}" name="PFL" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{6BF7AB6D-0C36-DD4C-8C48-84F843CA1A4B}" name="Electrolyte particle D50 (μm)" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{08BF51F6-8E27-2B41-B0E0-E431C83F7C21}" name="Ce on B-site (%)" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{9DDE8E55-A7F9-A64E-95FC-2E20AA94D7C4}" name="Electrolyte application" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{33CA00C8-527E-B34B-B678-84F3521D96FA}" name="Spray power (W)" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{F36E464C-E0F7-AC4B-896C-EB4D6A89C40E}" name="Spray flow rate (mL/min)" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{35222FBB-12FD-5C41-8AA6-E9645FC5DACA}" name="Spray size (cm^2)" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{C3463392-1604-E14B-A678-A97DA7F0BFCF}" name="Air flow (SLPM)" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{0DBE1845-5403-3846-9883-962D6DD7CA12}" name="Electrolyte spray layers" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{588F66C7-4646-2148-A560-CB0FC7AEDD1C}" name="Electrolyte grain size (μm)" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{EBD8892F-6BBB-3345-B064-F8D62C823304}" name="Sintering temperature (°C)" dataDxfId="12"/>
-    <tableColumn id="13" xr3:uid="{BA212AAE-41C7-AB48-8FDF-DAA65D0F7045}" name="Sintering time (hrs)" dataDxfId="11"/>
-    <tableColumn id="14" xr3:uid="{8792C224-E3EC-8A46-AD73-B41030B10EC1}" name="Two-step sinter" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{0C1FFC20-DF70-114F-BF28-9B3B449FD8FB}" name="Furnace" dataDxfId="9"/>
-    <tableColumn id="16" xr3:uid="{3DC68889-E1AE-C242-9AB4-25D00DAC1753}" name="Absolute humidity (g/m^3)" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{37EA5415-1971-224A-8FCC-DBE9E7C4BB00}" name="NFL" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{7906FA84-0826-CE47-9E30-8403FEBED9D0}" name="PFL" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{6BF7AB6D-0C36-DD4C-8C48-84F843CA1A4B}" name="Electrolyte particle D50 (μm)" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{08BF51F6-8E27-2B41-B0E0-E431C83F7C21}" name="Ce on B-site (%)" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{9DDE8E55-A7F9-A64E-95FC-2E20AA94D7C4}" name="Electrolyte application" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{33CA00C8-527E-B34B-B678-84F3521D96FA}" name="Spray power (W)" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{F36E464C-E0F7-AC4B-896C-EB4D6A89C40E}" name="Spray flow rate (mL/min)" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{35222FBB-12FD-5C41-8AA6-E9645FC5DACA}" name="Spray size (cm^2)" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{C3463392-1604-E14B-A678-A97DA7F0BFCF}" name="Air flow (SLPM)" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{0DBE1845-5403-3846-9883-962D6DD7CA12}" name="Electrolyte spray layers" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{588F66C7-4646-2148-A560-CB0FC7AEDD1C}" name="Electrolyte grain size (μm)" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{EBD8892F-6BBB-3345-B064-F8D62C823304}" name="Sintering temperature (°C)" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{BA212AAE-41C7-AB48-8FDF-DAA65D0F7045}" name="Sintering time (hrs)" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{8792C224-E3EC-8A46-AD73-B41030B10EC1}" name="Two-step sinter" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{0C1FFC20-DF70-114F-BF28-9B3B449FD8FB}" name="Furnace" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{3DC68889-E1AE-C242-9AB4-25D00DAC1753}" name="Absolute humidity (g/m^3)" dataDxfId="4"/>
     <tableColumn id="17" xr3:uid="{B8660A0B-D7AA-A848-9135-CEEC5D657F60}" name="Sintering neighbor"/>
-    <tableColumn id="18" xr3:uid="{DCF333C3-603A-FC4D-91EA-4BDF5198A86D}" name="Negatrode mass in furnace (g)" dataDxfId="7"/>
-    <tableColumn id="19" xr3:uid="{E27AF49A-F294-2049-AEA1-9AFE65AA280F}" name="NiO in electrolyte" dataDxfId="6"/>
+    <tableColumn id="18" xr3:uid="{DCF333C3-603A-FC4D-91EA-4BDF5198A86D}" name="Negatrode mass in furnace (g)" dataDxfId="3"/>
+    <tableColumn id="19" xr3:uid="{E27AF49A-F294-2049-AEA1-9AFE65AA280F}" name="NiO in electrolyte" dataDxfId="2"/>
     <tableColumn id="20" xr3:uid="{830F4DA3-B81F-A948-A4FC-ABA20AF4A977}" name="Setter"/>
-    <tableColumn id="21" xr3:uid="{4B2B2A25-5262-2042-80A4-1A342996DB48}" name="Pellet number" dataDxfId="5"/>
-    <tableColumn id="22" xr3:uid="{5278F7B8-8F3B-3444-A854-0588318CE951}" name="Normalized thickness" dataDxfId="4"/>
+    <tableColumn id="21" xr3:uid="{4B2B2A25-5262-2042-80A4-1A342996DB48}" name="Pellet number" dataDxfId="1"/>
+    <tableColumn id="22" xr3:uid="{5278F7B8-8F3B-3444-A854-0588318CE951}" name="Normalized thickness" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2352,7 +2352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A93792-B88E-8946-BCB4-1F5B11A29CF8}">
   <dimension ref="A1:T210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
@@ -15410,8 +15410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D36FBA-3B19-934A-9328-B0A64747C9CA}">
   <dimension ref="A1:S83"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView topLeftCell="H26" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20344,8 +20344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB15BFA7-F033-944E-839C-6540C2F90FD9}">
   <dimension ref="A1:V83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="M39" workbookViewId="0">
+      <selection activeCell="R50" sqref="R50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23072,7 +23072,7 @@
         <v>2.637</v>
       </c>
       <c r="Q40" s="21" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="R40" s="2">
         <v>12</v>
